--- a/backend/auxiliar/LIGHT_2025-02-26_20-10-15_L_1x1_-10.00_3.00s_0000.plate-coefs.xlsx
+++ b/backend/auxiliar/LIGHT_2025-02-26_20-10-15_L_1x1_-10.00_3.00s_0000.plate-coefs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,42 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AR_deg</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DEC</t>
+          <t>DEC_deg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AR_rad</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DEC_rad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>variance_ar_deg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>variance_ar_rad</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>variance_dec_deg</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>variance_dec_rad</t>
         </is>
       </c>
     </row>
@@ -460,10 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-6.009107933910965e-17</v>
+        <v>-3.446445297469252e-15</v>
       </c>
       <c r="D2" t="n">
-        <v>9.044221533181604e-16</v>
+        <v>5.181852886285393e-14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-6.015181793071385e-17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.044039421965141e-16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.340354423487577e-20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.017530145655904e-23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.358772248009262e-20</v>
+      </c>
+      <c r="J2" t="n">
+        <v>7.185231160530757e-24</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.192668887859101e-15</v>
+        <v>-6.833333893251918e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.543879735838083e-16</v>
+        <v>1.457903600538397e-14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.192641753253687e-15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.544521800607519e-16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.638474393859495e-20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.022194941177614e-23</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.687720877537031e-20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.427961438395616e-23</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.984353225119534e-16</v>
+        <v>-2.85724423910567e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.578309590864074e-15</v>
+        <v>9.042249602572488e-14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-4.986831950603407e-16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.578170273520386e-15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.224242944244471e-19</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.729257268678342e-23</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.644921812488469e-20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.633393776778073e-23</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.249806413562565e-15</v>
+        <v>-7.16091798019469e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.179413330367915e-16</v>
+        <v>-1.822185866997379e-14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.249815962196594e-15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-3.180314296241174e-16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.751287859911738e-19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.334727891901004e-23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.236661946166295e-19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.767087711895864e-23</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.071520029396508e-14</v>
+        <v>1.588807720708852e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>8.823762312193298e-13</v>
+        <v>5.051750024556178e-11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.772992590747597e-14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.816967091620969e-13</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.309142642419157e-14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.617257333013311e-17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.749020833719157e-14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.142017053094145e-17</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.431800498469008e-11</v>
+        <v>-1.393189389359303e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.327451761981606e-13</v>
+        <v>-2.365030851610907e-11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.431574194816909e-11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-4.127757527185576e-13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.069089170228671e-13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25663184556971e-17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.549312275521226e-14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.299652026533401e-17</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.689128000916085e-13</v>
+        <v>1.964924821667242e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.122165719410762e-11</v>
+        <v>-6.430609662025094e-10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.429440769225579e-13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.122353115128977e-11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.444834508451262e-13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.401217599832209e-17</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.020261657726338e-13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.107894736839071e-17</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.671566409112982e-07</v>
+        <v>9.523697778200668e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.48256380561783e-06</v>
+        <v>-0.0005433124394329655</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.662198831944703e-07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-9.48259093514752e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.313904033490626e-07</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.314090315889389e-10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.046238759343661e-07</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.279373909255304e-11</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.79881832040136e-06</v>
+        <v>0.000561439306738052</v>
       </c>
       <c r="D10" t="n">
-        <v>1.597176427929451e-07</v>
+        <v>9.283324573377411e-06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.798964452693393e-06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.620245793367337e-07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.207854288171788e-07</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.195637975461453e-10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.089785246465897e-07</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.550437249046898e-10</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.228161533080152</v>
+        <v>127.6475211903078</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2550327258022669</v>
+        <v>14.61194305973487</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.227869526780102</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.255026516506308</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3278673902328596</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.987411844493558e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2315216899352383</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7.052553981273065e-05</v>
       </c>
     </row>
   </sheetData>

--- a/backend/auxiliar/LIGHT_2025-02-26_20-10-15_L_1x1_-10.00_3.00s_0000.plate-coefs.xlsx
+++ b/backend/auxiliar/LIGHT_2025-02-26_20-10-15_L_1x1_-10.00_3.00s_0000.plate-coefs.xlsx
@@ -490,28 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.446445297469252e-15</v>
+        <v>-3.446445297159059e-15</v>
       </c>
       <c r="D2" t="n">
-        <v>5.181852886285393e-14</v>
+        <v>5.181852886273114e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.015181793071385e-17</v>
+        <v>-6.015181792529995e-17</v>
       </c>
       <c r="F2" t="n">
-        <v>9.044039421965141e-16</v>
+        <v>9.044039421943712e-16</v>
       </c>
       <c r="G2" t="n">
-        <v>3.340354423487577e-20</v>
+        <v>2.236793990413977e-29</v>
       </c>
       <c r="H2" t="n">
-        <v>1.017530145655904e-23</v>
+        <v>6.813664139543215e-33</v>
       </c>
       <c r="I2" t="n">
-        <v>2.358772248009262e-20</v>
+        <v>5.63655342688161e-29</v>
       </c>
       <c r="J2" t="n">
-        <v>7.185231160530757e-24</v>
+        <v>1.716992361386606e-32</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-6.833333893251918e-14</v>
+        <v>-6.833333893500072e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.457903600538397e-14</v>
+        <v>1.457903600507377e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.192641753253687e-15</v>
+        <v>-1.192641753296998e-15</v>
       </c>
       <c r="F3" t="n">
-        <v>2.544521800607519e-16</v>
+        <v>2.544521800553381e-16</v>
       </c>
       <c r="G3" t="n">
-        <v>6.638474393859495e-20</v>
+        <v>4.445306619349285e-29</v>
       </c>
       <c r="H3" t="n">
-        <v>2.022194941177614e-23</v>
+        <v>1.354117832546956e-32</v>
       </c>
       <c r="I3" t="n">
-        <v>4.687720877537031e-20</v>
+        <v>1.120183993975924e-28</v>
       </c>
       <c r="J3" t="n">
-        <v>1.427961438395616e-23</v>
+        <v>3.412275579313158e-32</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.85724423910567e-14</v>
+        <v>-2.857244234638895e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>9.042249602572488e-14</v>
+        <v>9.042249603192873e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.986831950603407e-16</v>
+        <v>-4.986831942807413e-16</v>
       </c>
       <c r="F4" t="n">
-        <v>1.578170273520386e-15</v>
+        <v>1.578170273628664e-15</v>
       </c>
       <c r="G4" t="n">
-        <v>1.224242944244471e-19</v>
+        <v>8.197870385363707e-29</v>
       </c>
       <c r="H4" t="n">
-        <v>3.729257268678342e-23</v>
+        <v>2.497214124535363e-32</v>
       </c>
       <c r="I4" t="n">
-        <v>8.644921812488469e-20</v>
+        <v>2.065801974244446e-28</v>
       </c>
       <c r="J4" t="n">
-        <v>2.633393776778073e-23</v>
+        <v>6.292792671846319e-32</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-7.16091798019469e-14</v>
+        <v>-7.160917981270024e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.822185866997379e-14</v>
+        <v>-1.822185867080097e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.249815962196594e-15</v>
+        <v>-1.249815962384275e-15</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.180314296241174e-16</v>
+        <v>-3.180314296385544e-16</v>
       </c>
       <c r="G5" t="n">
-        <v>1.751287859911738e-19</v>
+        <v>1.172710935399966e-28</v>
       </c>
       <c r="H5" t="n">
-        <v>5.334727891901004e-23</v>
+        <v>3.572281792971952e-32</v>
       </c>
       <c r="I5" t="n">
-        <v>1.236661946166295e-19</v>
+        <v>2.955143777208941e-28</v>
       </c>
       <c r="J5" t="n">
-        <v>3.767087711895864e-23</v>
+        <v>9.001882725121354e-32</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.588807720708852e-12</v>
+        <v>1.588807724096984e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>5.051750024556178e-11</v>
+        <v>5.051750024577353e-11</v>
       </c>
       <c r="E6" t="n">
-        <v>2.772992590747597e-14</v>
+        <v>2.772992596661002e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>8.816967091620969e-13</v>
+        <v>8.816967091657929e-13</v>
       </c>
       <c r="G6" t="n">
-        <v>5.309142642419157e-14</v>
+        <v>3.555149200130355e-23</v>
       </c>
       <c r="H6" t="n">
-        <v>1.617257333013311e-17</v>
+        <v>1.082960376300489e-26</v>
       </c>
       <c r="I6" t="n">
-        <v>3.749020833719157e-14</v>
+        <v>8.958709873572875e-23</v>
       </c>
       <c r="J6" t="n">
-        <v>1.142017053094145e-17</v>
+        <v>2.728979086305479e-26</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.393189389359303e-09</v>
+        <v>-1.393189389338127e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.365030851610907e-11</v>
+        <v>-2.365030851356797e-11</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.431574194816909e-11</v>
+        <v>-2.43157419477995e-11</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.127757527185576e-13</v>
+        <v>-4.127757526742071e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>1.069089170228671e-13</v>
+        <v>7.158917671638654e-23</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25663184556971e-17</v>
+        <v>2.180731029600038e-26</v>
       </c>
       <c r="I7" t="n">
-        <v>7.549312275521226e-14</v>
+        <v>1.803993667175852e-22</v>
       </c>
       <c r="J7" t="n">
-        <v>2.299652026533401e-17</v>
+        <v>5.495278962066702e-26</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.964924821667242e-11</v>
+        <v>1.964924817432078e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.430609662025094e-10</v>
+        <v>-6.430609662071681e-10</v>
       </c>
       <c r="E8" t="n">
-        <v>3.429440769225579e-13</v>
+        <v>3.429440761833822e-13</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.122353115128977e-11</v>
+        <v>-1.122353115137108e-11</v>
       </c>
       <c r="G8" t="n">
-        <v>1.444834508451262e-13</v>
+        <v>9.675012696024873e-23</v>
       </c>
       <c r="H8" t="n">
-        <v>4.401217599832209e-17</v>
+        <v>2.947177403866744e-26</v>
       </c>
       <c r="I8" t="n">
-        <v>1.020261657726338e-13</v>
+        <v>2.438030779795201e-22</v>
       </c>
       <c r="J8" t="n">
-        <v>3.107894736839071e-17</v>
+        <v>7.426666455017913e-26</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.523697778200668e-06</v>
+        <v>9.523697778139953e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0005433124394329655</v>
+        <v>-0.0005433124394329735</v>
       </c>
       <c r="E9" t="n">
-        <v>1.662198831944703e-07</v>
+        <v>1.662198831934106e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.48259093514752e-06</v>
+        <v>-9.482590935147661e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>4.313904033490626e-07</v>
+        <v>2.888709817582726e-16</v>
       </c>
       <c r="H9" t="n">
-        <v>1.314090315889389e-10</v>
+        <v>8.799513311445835e-20</v>
       </c>
       <c r="I9" t="n">
-        <v>3.046238759343661e-07</v>
+        <v>7.279332514009924e-16</v>
       </c>
       <c r="J9" t="n">
-        <v>9.279373909255304e-11</v>
+        <v>2.217411488187197e-19</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.000561439306738052</v>
+        <v>0.0005614393067380668</v>
       </c>
       <c r="D10" t="n">
-        <v>9.283324573377411e-06</v>
+        <v>9.283324573376868e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>9.798964452693393e-06</v>
+        <v>9.798964452693649e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>1.620245793367337e-07</v>
+        <v>1.620245793367243e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>7.207854288171788e-07</v>
+        <v>4.826579192374805e-16</v>
       </c>
       <c r="H10" t="n">
-        <v>2.195637975461453e-10</v>
+        <v>1.470260099977429e-19</v>
       </c>
       <c r="I10" t="n">
-        <v>5.089785246465897e-07</v>
+        <v>1.216261828469087e-15</v>
       </c>
       <c r="J10" t="n">
-        <v>1.550437249046898e-10</v>
+        <v>3.704945399733175e-19</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>127.6475211903078</v>
+        <v>127.6475211903077</v>
       </c>
       <c r="D11" t="n">
         <v>14.61194305973487</v>
       </c>
       <c r="E11" t="n">
-        <v>2.227869526780102</v>
+        <v>2.227869526780101</v>
       </c>
       <c r="F11" t="n">
         <v>0.255026516506308</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3278673902328596</v>
+        <v>2.195491002298731e-10</v>
       </c>
       <c r="H11" t="n">
-        <v>9.987411844493558e-05</v>
+        <v>6.687848042851741e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2315216899352383</v>
+        <v>5.532472988450911e-10</v>
       </c>
       <c r="J11" t="n">
-        <v>7.052553981273065e-05</v>
+        <v>1.685287646781577e-13</v>
       </c>
     </row>
   </sheetData>
